--- a/data/trans_dic/P16B08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,53%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>74,48; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>49,19; 93,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>79,59; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>83,26; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>75,01; 97,42</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>52,28; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>72,07; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>82,4; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>87,25; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>78,09; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>88,25; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>87,35; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,32%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>74,12; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>85,83; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>87,16; 98,54</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>32,42; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>78,04; 97,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>67,25; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>83,84; 98,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,48%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>70,51; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>70,98; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>81,11; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>81,37; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>80,5; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>82,95; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>82,35; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>89,92; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>88,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>79,66; 97,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>98,17; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>85,85; 97,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>93,61; 98,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>92,56; 98,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>90,81; 98,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>95,94; 99,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>92,7; 97,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1197,32 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>94,72%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81,37; 100,0</t>
+          <t>71,88; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>80,5; 100,0</t>
+          <t>68,32; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,95; 100,0</t>
+          <t>61,52; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>82,35; 100,0</t>
+          <t>80,78; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,92; 100,0</t>
+          <t>79,82; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,69; 100,0</t>
+          <t>77,25; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1302,37 +1302,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>63,75; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>79,25; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>82,92; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>82,92; 100</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90,95; 100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91,73; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>91,22%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>93,54%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>98,61%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>96,82%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>96,93%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95,91%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>95,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>79,66; 97,04</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>98,17; 100</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>85,85; 97,19</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>95,19; 100,0</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>93,61; 98,89</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>92,56; 98,89</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>90,81; 98,16</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>95,94; 99,07</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>92,7; 97,94</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,48; 100,0</t>
+          <t>74,37; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +696,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,19; 93,85</t>
+          <t>50,11; 93,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,59; 100,0</t>
+          <t>74,29; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,26; 100,0</t>
+          <t>82,12; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>75,01; 97,42</t>
+          <t>76,67; 97,42</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,28; 100,0</t>
+          <t>55,06; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,7 +806,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,07; 100,0</t>
+          <t>76,76; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,27 +816,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,4; 100,0</t>
+          <t>81,72; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,25; 100,0</t>
+          <t>83,3; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,09; 100,0</t>
+          <t>79,11; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,25; 100,0</t>
+          <t>89,22; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,35; 100,0</t>
+          <t>87,59; 100,0</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,12; 100,0</t>
+          <t>74,54; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +931,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,83; 100,0</t>
+          <t>85,91; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,16; 98,54</t>
+          <t>87,48; 98,56</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,42; 100,0</t>
+          <t>31,24; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1035,7 +1036,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,04; 97,38</t>
+          <t>77,19; 97,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,25; 100,0</t>
+          <t>66,98; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,84; 98,11</t>
+          <t>82,62; 98,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,51; 100,0</t>
+          <t>69,73; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1151,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,98; 100,0</t>
+          <t>68,27; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,11; 100,0</t>
+          <t>79,5; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,88; 100,0</t>
+          <t>75,34; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,32; 100,0</t>
+          <t>73,09; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,52; 100,0</t>
+          <t>69,06; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,78; 100,0</t>
+          <t>81,34; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>79,82; 100,0</t>
+          <t>78,05; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,25; 100,0</t>
+          <t>78,11; 100,0</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,66; 97,04</t>
+          <t>78,89; 97,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,37 +1466,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,85; 97,19</t>
+          <t>87,54; 97,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,29; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,89</t>
+          <t>93,07; 98,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,56; 98,89</t>
+          <t>93,07; 98,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,81; 98,16</t>
+          <t>91,69; 98,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,07</t>
+          <t>95,98; 99,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,94</t>
+          <t>92,73; 97,81</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la alergia fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15698</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18367</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12681</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16875</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27039</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20933</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32573</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45406</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33614</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12470; 16769</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16533; 18367</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8115; 15209</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13192; 17756</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25199; 27039</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19124; 20933</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28353; 34525</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43519; 45406</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28467; 36170</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15697</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25259</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19372</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26322</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35580</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33640</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42019</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60839</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10219; 18558</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23336; 25259</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15584; 20302</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24318; 26322</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30847; 37747</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28861; 34646</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35506; 44880</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56215; 63006</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>48131; 54949</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10932</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26630</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19855</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28388</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>52868</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43696</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39320</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>79498</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>63551</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9217; 10932</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24602; 26630</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15561; 20877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26456; 28388</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50885; 52868</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39338; 45791</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37394; 39320</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>77468; 79498</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58324; 65706</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8073</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13883</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12618</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16027</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31128</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33919</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24101</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45011</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46537</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3385; 10836</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11705; 13883</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10639; 12618</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14241; 16027</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26359; 33209</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31832; 33919</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17993; 26864</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39681; 47087</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>44420; 46537</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9971</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8475</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18025</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20252</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14375</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24359</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30224</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22850</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42384</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8103; 9971</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6716; 8475</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13360; 19160</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18329; 20252</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12563; 14375</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17871; 26178</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28238; 30224</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20960; 22850</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>36043; 45338</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5104</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12408</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4773</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14816</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13867</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11475</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19920</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26275</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16249</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3543; 5104</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10462; 12408</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3314; 4773</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11884; 15774</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10852; 14848</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8550; 12380</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16983; 20878</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21273; 27256</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13399; 17154</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9721</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8287</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7756</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13101</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15715</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11809</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>22823</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2583; 4052</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7704; 9721</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6872; 8287</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5707; 7756</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11201; 13101</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13435; 15715</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9792; 11809</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20758; 22823</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22017; 24002</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>69528</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>114743</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>95612</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>130438</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>187959</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>183737</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>199965</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>302703</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>279349</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>60132; 74004</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>112648; 114743</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>89476; 99628</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>126046; 132277</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>180665; 191997</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>176422; 187517</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>191171; 204862</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>296439; 306820</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>270575; 285383</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>